--- a/src/main/java/com/atv/test/data/TestCases.xlsx
+++ b/src/main/java/com/atv/test/data/TestCases.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="4155" tabRatio="236" firstSheet="1" activeTab="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="236" windowHeight="4155" windowWidth="14895" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSuite" sheetId="41" r:id="rId1"/>
-    <sheet name="TestCase" sheetId="40" r:id="rId2"/>
+    <sheet name="TestSuite" r:id="rId1" sheetId="41"/>
+    <sheet name="TestCase" r:id="rId2" sheetId="40"/>
   </sheets>
   <definedNames>
     <definedName name="Degree">#REF!</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Sr No</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -178,52 +181,52 @@
     </border>
   </borders>
   <cellStyleXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="165"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="164"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="164"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -236,14 +239,14 @@
     <cellStyle name="Excel Built-in Normal 3" xfId="11"/>
     <cellStyle name="Heading" xfId="6"/>
     <cellStyle name="Heading1" xfId="7"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="8"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="Result" xfId="9"/>
     <cellStyle name="Result2" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -260,10 +263,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -419,7 +422,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -428,13 +431,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -444,7 +447,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -453,7 +456,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -462,7 +465,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -472,12 +475,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -508,7 +511,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -527,7 +530,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -543,14 +546,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E9" pane="bottomLeft" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="83.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -580,7 +583,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -589,20 +592,20 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="H2" pane="bottomLeft" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" collapsed="1"/>
-    <col min="2" max="2" width="29" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="71" style="8" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" style="4" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="29.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="20.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="8" width="71.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="11.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="6.76171875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -631,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row customHeight="1" ht="18.75" r="2" spans="1:8">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -653,74 +656,76 @@
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="3" spans="1:8">
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="4" spans="1:8">
       <c r="A4" s="9"/>
       <c r="C4" s="6"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="5" spans="1:8">
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="6" spans="1:8">
       <c r="A6" s="9"/>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="7" spans="1:8">
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" customHeight="1">
+    <row customHeight="1" ht="16.5" r="8" spans="1:8">
       <c r="A8" s="9"/>
       <c r="C8" s="6"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+    <row customHeight="1" ht="18.75" r="9" spans="1:8">
       <c r="C9" s="6"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="10" spans="1:8">
       <c r="A10" s="9"/>
       <c r="C10" s="6"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1">
+    <row customHeight="1" ht="17.25" r="11" spans="1:8">
       <c r="C11" s="6"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="12" spans="1:8">
       <c r="A12" s="9"/>
       <c r="C12" s="6"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1"/>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1"/>
+    <row customHeight="1" ht="17.25" r="13" spans="1:8"/>
+    <row customHeight="1" ht="15.75" r="14" spans="1:8"/>
     <row r="15" spans="1:8">
       <c r="A15" s="9"/>
       <c r="C15" s="6"/>
@@ -974,7 +979,7 @@
       <c r="E56" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/com/atv/test/data/TestCases.xlsx
+++ b/src/main/java/com/atv/test/data/TestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Sr No</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row customHeight="1" ht="18.75" r="3" spans="1:8">
